--- a/biology/Botanique/Buphthalmum/Buphthalmum.xlsx
+++ b/biology/Botanique/Buphthalmum/Buphthalmum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Buphthalmum est un genre de plantes à fleurs de la famille des Asteraceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buphthalmum est un genre de plantes à fleurs de la famille des Asteraceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes herbacées vivaces aux feuilles alternes. L'inflorescence prend la forme d'une fausse fleur. La tête présente d'étroites bractées involucrales, des ligules jaunes et un disque de fleurons jaunes. Le fruit est un akène à aigrettes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes herbacées vivaces aux feuilles alternes. L'inflorescence prend la forme d'une fausse fleur. La tête présente d'étroites bractées involucrales, des ligules jaunes et un disque de fleurons jaunes. Le fruit est un akène à aigrettes.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Buphthalmum aquaticum L. 1753 (synonyme de Astericus aquaticus)
 Buphthalmum asteroideum Viv. 1824
